--- a/input_data/admin_data/CRI/wage_CRI_2012.xlsx
+++ b/input_data/admin_data/CRI/wage_CRI_2012.xlsx
@@ -440,7 +440,7 @@
         <v>0.18063926696777344</v>
       </c>
       <c r="I15">
-        <v>2.4115371704101563</v>
+        <v>2.4115371704101562</v>
       </c>
     </row>
     <row r="16">
